--- a/storage/excel/import/1-category.xlsx
+++ b/storage/excel/import/1-category.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="13060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="中文类目" sheetId="7" r:id="rId1"/>
@@ -884,11 +884,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1198,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2826,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
